--- a/biology/Zoologie/Delias/Delias.xlsx
+++ b/biology/Zoologie/Delias/Delias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Delias regroupe de nombreuses espèces de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,17 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Delias a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type pour le genre est Papilio egialea (Cramer, 1777) (aujourd'hui : Delias pasithoe egialea (Cramer, 1777))
-Synonymie
-Cathaemia (Hübner, 1819)[2]
-Symmachlas (Hübner, 1821)[3]
-Harpanota (Swainson, 1851)
-Thyca (Wallengren, 1858)[4]
-Piccarda (Grote, 1900)[5]
-Symmachlos (Klots, 1933)[6]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Delias a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type pour le genre est Papilio egialea (Cramer, 1777) (aujourd'hui : Delias pasithoe egialea (Cramer, 1777))</t>
         </is>
       </c>
     </row>
@@ -546,26 +553,140 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des espèces classées par groupe</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Groupe de l’aglaia (pasithoe)
- Delias acalis (Godart, 1819)
-Delias aglaia  (Linnaeus, 1758), Enfumé[7]
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cathaemia (Hübner, 1819)
+Symmachlas (Hübner, 1821)
+Harpanota (Swainson, 1851)
+Thyca (Wallengren, 1858)
+Piccarda (Grote, 1900)
+Symmachlos (Klots, 1933)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Groupe de l’aglaia (pasithoe)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delias acalis (Godart, 1819)
+Delias aglaia  (Linnaeus, 1758), Enfumé
 Delias benasu (Martin, 1912)
 Delias crithoe (Boisduval, 1836)
 Delias henningia (Eschscholtz, 1821)
 Delias hidecoae (Nakano, 1993)
 Delias ninus (Wallace, 1867)
 Delias ottonia (Semper, 1890)
-Delias woodi (Talbot, 1928)
-Groupe de l'albertisi
-Delias albertisi (Oberthür, 1880)
-Delias discus (Honrath, 1886)
-Groupe de l’aroae
-Delias angabungana (Talbot, 1928)
+Delias woodi (Talbot, 1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe de l'albertisi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Delias albertisi (Oberthür, 1880)
+Delias discus (Honrath, 1886)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groupe de l’aroae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Delias angabungana (Talbot, 1928)
 Delias angiensis  (Talbot, 1928)
 Delias approximata  (Joicey &amp; Talbot, 1922)
 Delias aroae (Ribbe, 1900)
@@ -579,9 +700,43 @@
 Delias kenricki  (Talbot, 1937)
 Delias pheres (Jordan, 1912)
 Delias subapicalis  (Orr &amp; Sibatani, 1985)
-Delias yabensis (Joicey &amp; Talbot, 1922)
-Groupe du belisama
-Delias aganippe (Donovan, 1805)
+Delias yabensis (Joicey &amp; Talbot, 1922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Groupe du belisama</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Delias aganippe (Donovan, 1805)
 Delias apoensis (Talbot, 1928)
 Delias aruna (Boisduval, 1832)
 Delias aurantiaca (Doherty, 1891)
@@ -594,9 +749,43 @@
 Delias madetes (Godman &amp; Salvin, 1878)
 Delias oraia (Doherty, 1891)
 Delias splendida (Rothschild, 1894)
-Delias zebuda (Hewitson, 1862)
-Groupe de belladonna
-Delias belladonna (Fabricius, 1793)
+Delias zebuda (Hewitson, 1862)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Groupe de belladonna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Delias belladonna (Fabricius, 1793)
 Delias berinda (Moore, 1872)
 Delias blanca (C. &amp; R. Felder, 1862)
 Delias lativitta (Leech, 1893)
@@ -604,23 +793,125 @@
 Delias sanaca (Moore, 1857)
 Delias subnubila (Leech, 1893)
 Delias surprisa (Martin, 1913)
-Delias wilemani (Jordan, 1925)
-Groupe de bornemanni 
-Delias bornemanni (Ribbe, 1900)
+Delias wilemani (Jordan, 1925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de bornemanni </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Delias bornemanni (Ribbe, 1900)
 Delias caroli (Kenrick, 1909)
 Delias castaneus (Kenrick, 1909)
 Delias kristianiae (van Mastrigt, 2006)
 Delias nais (Jordan, 1912)
 Delias pratti (Kenrick, 1909)
-Delias zebra (Roepke, 1955)
-Groupe de chrysomelaena 
-Delias caliban (Grose-Smith, 1897)
+Delias zebra (Roepke, 1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de chrysomelaena </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Delias caliban (Grose-Smith, 1897)
 Delias chrysomelaena (Vollenhoven, 1866)
 Delias ladas (Grose-Smith, 1894)
 Delias talboti (Joicey &amp; Noakes, 1915)
-Delias totila (Heller, 1896)
-Groupe de clathrata
-Delias autumnalis (Roepke, 1955)
+Delias totila (Heller, 1896)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Groupe de clathrata</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Delias autumnalis (Roepke, 1955)
 Delias bobaga (Mastrigt, 1990)
 Delias catocausta (Jordan, 1912)
 Delias clathrata (Rothschild, 1904)
@@ -640,9 +931,43 @@
 Delias roepkei (Sanford &amp; Bennett, 1955)
 Delias sawyeri (Mastrigt, 2000)
 Delias sigit (Mastrigt, 1990)
-Delias walshae (Roepke, 1955)
-Groupe de cunningputi
-Delias chimbu (Orr &amp; Sibatani, 1986)
+Delias walshae (Roepke, 1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Groupe de cunningputi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Delias chimbu (Orr &amp; Sibatani, 1986)
 Delias citrona (Joicey &amp; Talbot, 1922)
 Delias cuningputi (Ribbe, 1900)
 Delias dortheysi (van Mastrigt, 2002)
@@ -650,9 +975,43 @@
 Delias imitator (Kenrick, 1911)
 Delias jordani (Kenrick, 1909)
 Delias konokono (Orr &amp; Sibatani, 1986)
- Delias oktanglap  (van Mastrigt, 1990)
-Groupe de dorimene 
-Delias agoranis (Grose-Smith, 1887)
+ Delias oktanglap  (van Mastrigt, 1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de dorimene </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Delias agoranis (Grose-Smith, 1887)
 Delias alberti (Rothschild, 1904)
 Delias apatela (Joicey &amp; Talbot, 1923)
 Delias baracasa (Semper, 1890)
@@ -668,9 +1027,43 @@
 Delias melusina (Staudinger, 1890)
 Delias narses (Heller, 1896)
 Delias rothschildi (Holland, 1900)
-Delias subviridis (Joicey &amp; Talbot, 1922)
-Groupe de l'eichhorni
-Delias antara
+Delias subviridis (Joicey &amp; Talbot, 1922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Groupe de l'eichhorni</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Delias antara
 Delias carstenziana (Rothschild, 1915)
 Delias catisa (Jordan, 1912)
 Delias eichhorni (Rothschild &amp; Jordan, 1904)
@@ -679,9 +1072,43 @@
 Delias hallstromi (Sanford &amp; Bennett, 1955)
 Delias leucobalia (Jordan, 1912)
 Delias muliensis
-Delias toxopei (Roepke, 1955)
-Groupe du georgina
-Delias battana (Fruhstorfer, 1896)
+Delias toxopei (Roepke, 1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Groupe du georgina</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Delias battana (Fruhstorfer, 1896)
 Delias cinerascens ( Mitis, 1893)
 Delias ganymedes (Okumoto, 1981)
 Delias georgina (C. &amp; R. Felder, 1861)
@@ -693,9 +1120,43 @@
 Delias shirozui 
 Delias simanabum
 Delias vietnamensis (Monastyrskii &amp; Devyatkin, 2000).
-Delias yagishitai (Morita, 2003)
-Groupe du geraldina 
-Delias abrophora  (Roepke, 1955)
+Delias yagishitai (Morita, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe du geraldina </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Delias abrophora  (Roepke, 1955)
 Delias anjae (Schröder, 1977)
 Delias argentata (Roepke, 1955)
 Delias cuningputi (Ribbe, 1900)
@@ -724,9 +1185,43 @@
 Delias sphenodiscus (Roepke, 1955)
 Delias subapicalis (Orr &amp; Sibatani, 1985)
 Delias takashii (Sakuma, 1999)
-Delias thompsoni (Joicey &amp; Talbot, 1916)
-Groupe de l'hyparete
-Delias argenthona (Fabricius, 1793)
+Delias thompsoni (Joicey &amp; Talbot, 1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Groupe de l'hyparete</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Delias argenthona (Fabricius, 1793)
 Delias bagoe (Boisduval, 1832)
 Delias ceneus (Linnaeus, 1758)
 Delias doylei (Sanford &amp; Bennett, 1955)
@@ -744,9 +1239,43 @@
 Delias salvini (Butler, 1882)
 Delias sambawana (Rothschild, 1894)
 Delias schoenbergi (Rothschild, 1895)
-Delias timorensis (Boisduval, 1836)
-Groupe de l'iltis
-Delias arabuana  (Roepke, 1955)
+Delias timorensis (Boisduval, 1836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Groupe de l'iltis</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Delias arabuana  (Roepke, 1955)
 Delias awongkor (van Mastrigt, 1989)
 Delias bakeri (Kenrick, 1909)
 Delias callista (Jordan, 1912)
@@ -755,9 +1284,43 @@
 Delias luctuosa (Jordan, 1912)
 Delias luteola (Roepke, 1955)
 Delias mesoblema (Jordan, 1912)
-Delias raymondi(Schröder &amp; Treadaway, 1982)
-Groupe de l'isse
-Delias alberti  (Rothschild, 1904)
+Delias raymondi(Schröder &amp; Treadaway, 1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Groupe de l'isse</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Delias alberti  (Rothschild, 1904)
 Delias bosnikiana (Joicey &amp; Noakes, 1915)
 Delias candida (Vollenhoven, 1865)
 Delias ennia (Wallace, 1867)
@@ -765,9 +1328,43 @@
 Delias laknekei (L.D. Miller, M.J. Simon &amp; Wills, 2007)
 Delias lytaea (Godman &amp; Salvin, 1878)
 Delias parennia (Roepke, 1955)
-Delias sacha (Grose-Smith, 1895)
-Groupe du kummeri
-Delias alepa (Jordan, 1912)
+Delias sacha (Grose-Smith, 1895)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Groupe du kummeri</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Delias alepa (Jordan, 1912)
 Delias bothwelli (Kenrick, 1909)
 Delias dixeyi (Kenrick, 1909)
 Delias fojaensis (van Mastrigt, 2006)
@@ -775,13 +1372,81 @@
 Delias kummeri (Ribbe, 1900)
 Delias ligata (Rothschild &amp; Jordan, 1904)
 Delias messalina (Arora, 1983)
-Delias strix
-Groupe du niepelti
-Delias anamesa (Bennett, 1956)
+Delias strix</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Groupe du niepelti</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Delias anamesa (Bennett, 1956)
 Delias meeki (Rothschild &amp; Jordan, 1904)
-Delias niepelti (Ribbe, 1900)
-Groupe du nigrina
-Delias buruana (Rothschild, 1899)
+Delias niepelti (Ribbe, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Groupe du nigrina</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Delias buruana (Rothschild, 1899)
 Delias dohertyi  (Oberthür, 1894)
 Delias duris (Hewitson, 1861)
 Delias eximia (Rothschild, 1925)
@@ -792,9 +1457,43 @@
 Delias ornytion (Godman &amp; Salvin, 1880)
 Delias prouti (Joicey &amp; Talbot, 1923)
 Delias shunichii (Morita, 1996)
-Delias wollastoni (Rothschild, 1915)
-Groupe du nysa
-Delias akikoae  (Morita, 2001)
+Delias wollastoni (Rothschild, 1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Groupe du nysa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Delias akikoae  (Morita, 2001)
 Delias dice (Vollenhoven, 1865)
 Delias enniana (Oberthür, 1880)
 Delias eschatia (Joicey &amp; Talbot, 1923)
@@ -808,19 +1507,121 @@
 Delias nysa (Fabricius, 1775)
 Delias pulla  (Talbot, 1937)
 Delias ribbei (Röber, 1886)
-Delias vidua (Joicey &amp; Talbot, 1922)
-Groupe du singhapura
-Delias agoranis (Grose-Smith, 1887)
+Delias vidua (Joicey &amp; Talbot, 1922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Groupe du singhapura</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Delias agoranis (Grose-Smith, 1887)
 Delias kuhni (Honrath, 1886)
 Delias kuehni (Honrath, 1886)
 Delias singhapura (Wallace, 1867)
-Delias themis (Hewitson, 1861)
-Groupe du stresemanni
-Delias schmassmanni (Joicey &amp; Talbot, 1923)
+Delias themis (Hewitson, 1861)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Groupe du stresemanni</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Delias schmassmanni (Joicey &amp; Talbot, 1923)
 Delias stresemanni (Rothschild, 1915)
-Delias waterstradti (Rothschild, 1915)
-Groupe du weiskei
-Delias callima (Rothschild &amp; Jordan, 1905)
+Delias waterstradti (Rothschild, 1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Groupe du weiskei</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Delias callima (Rothschild &amp; Jordan, 1905)
 Delias campbelli (Joicey &amp; Talbot, 1922)
 Delias cumanau (van Mastrigt, 2006)
 Delias durai (van Mastrigt, 2006)
@@ -834,9 +1635,43 @@
 Delias telefominensis (Yagishita, 1993)
 Delias tessei (Joicey &amp; Talbot, 1916)
 Delias virgo (Gerrits &amp; van Mastrigt, 1993)
-Delias weiskei (Ribbe, 1900)
-Espèces non classées
-Delias brandti Müller, 2001.
+Delias weiskei (Ribbe, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des espèces classées par groupe</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Espèces non classées</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Delias brandti Müller, 2001.
 Delias buruana Rothschild, 1899
 Delias dumasi Rothschild, 1925
 Delias harpalyce (Donovan, 1805)
@@ -848,31 +1683,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delias</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Delias</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Océanie et dans le sud-est de l'Asie.
 </t>
